--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschwartz/Desktop/ME 263/Project Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschwartz/Desktop/ME 263/ME-263/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ME 263</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -27,18 +27,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ME 263</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Day Duration</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>OR1/PR1</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Write OR and PR</t>
+  </si>
+  <si>
+    <t>OR1/PR1 submitted</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Identify Customers/Markets</t>
+  </si>
+  <si>
+    <t>Pre-existing Solution</t>
+  </si>
+  <si>
+    <t>Infrastructure Buillding</t>
+  </si>
+  <si>
+    <t>ability to divvy work and communicate</t>
+  </si>
+  <si>
+    <t>Build Phase one plan</t>
+  </si>
+  <si>
+    <t>phase 1 gantt</t>
+  </si>
+  <si>
+    <t>Constraints on End Solution/Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,17 +418,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42767</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42768</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42760</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42767</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42752</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42760</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42747</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42752</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42751</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42752</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42749</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42750</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42747</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42746</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42746</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42745</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42745</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Submission</t>
   </si>
   <si>
-    <t>Deliverables</t>
-  </si>
-  <si>
-    <t>OR1/PR1</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -84,6 +78,15 @@
   </si>
   <si>
     <t>Constraints on End Solution/Project</t>
+  </si>
+  <si>
+    <t>D1-Labor Costs in Lab</t>
+  </si>
+  <si>
+    <t>Submissions Made</t>
+  </si>
+  <si>
+    <t>TBE 1 due to LC's</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,13 +441,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -455,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>42767</v>
@@ -469,10 +472,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>42760</v>
@@ -486,10 +489,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>42752</v>
@@ -503,10 +506,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>42747</v>
@@ -520,10 +523,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>42751</v>
@@ -537,10 +540,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>42749</v>
@@ -554,10 +557,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>42747</v>
@@ -571,10 +574,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>42746</v>
@@ -588,10 +591,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>42745</v>

--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschwartz/Desktop/ME 263/ME-263/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobho\Documents\ME 263\ME-263\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -87,12 +87,15 @@
   </si>
   <si>
     <t>TBE 1 due to LC's</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -153,6 +156,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,22 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -453,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -470,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -487,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -504,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -521,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -538,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -555,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -572,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -589,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -604,6 +610,11 @@
       </c>
       <c r="E10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -89,7 +89,7 @@
     <t>TBE 1 due to LC's</t>
   </si>
   <si>
-    <t>jk</t>
+    <t>kl</t>
   </si>
 </sst>
 </file>

--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobho\Documents\ME 263\ME-263\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschwartz/Desktop/ME 263/ME-263/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -89,13 +89,13 @@
     <t>TBE 1 due to LC's</t>
   </si>
   <si>
-    <t>jk</t>
+    <t>D2 (HOQ and Persona Due 26th)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -427,18 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,12 +476,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>42760</v>
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -610,11 +610,6 @@
       </c>
       <c r="E10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>phase 1 gantt</t>
   </si>
   <si>
-    <t>Constraints on End Solution/Project</t>
-  </si>
-  <si>
     <t>D1-Labor Costs in Lab</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>D2 (HOQ and Persona Due 26th)</t>
+  </si>
+  <si>
+    <t>Constraints</t>
   </si>
 </sst>
 </file>
@@ -162,6 +162,1193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Phase 1 Gantt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Submission</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Buffer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Write OR and PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pre-existing Solution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Identify Customers/Markets</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Infrastructure Buillding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Build Phase one plan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42767.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42760.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42752.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42751.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42749.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42747.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42747.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42746.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42745.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duration</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Submission</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Buffer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Write OR and PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pre-existing Solution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Identify Customers/Markets</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Infrastructure Buillding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Build Phase one plan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1774731680"/>
+        <c:axId val="1774733728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1774731680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774733728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1774733728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42770.0"/>
+          <c:min val="42745.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774731680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -481,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>42760</v>
@@ -498,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>42752</v>
@@ -511,34 +1698,34 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>42747</v>
+        <v>42751</v>
       </c>
       <c r="D5" s="1">
         <v>42752</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>42751</v>
+        <v>42749</v>
       </c>
       <c r="D6" s="1">
-        <v>42752</v>
+        <v>42750</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -546,36 +1733,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>42749</v>
+        <v>42747</v>
       </c>
       <c r="D7" s="1">
-        <v>42750</v>
+        <v>42748</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>42747</v>
       </c>
       <c r="D8" s="1">
-        <v>42748</v>
+        <v>42752</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -614,5 +1801,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectWorkflowPhase1.xlsx
+++ b/ProjectWorkflowPhase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,12 +356,16 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -373,12 +377,16 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -390,12 +398,16 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -466,7 +478,7 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0</c:v>
@@ -500,11 +512,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1774731680"/>
-        <c:axId val="1774733728"/>
+        <c:axId val="1615663376"/>
+        <c:axId val="1825253488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1774731680"/>
+        <c:axId val="1615663376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774733728"/>
+        <c:crossAx val="1825253488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774733728"/>
+        <c:axId val="1825253488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42770.0"/>
@@ -720,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774731680"/>
+        <c:crossAx val="1615663376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1616,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1706,7 @@
         <v>42760</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
